--- a/9°A/Administración de proyectos/RA_GestionRiegos_SM-ROOT/RA_SM-ROOT/APPMO-SP_ARP_v1.1.xlsx
+++ b/9°A/Administración de proyectos/RA_GestionRiegos_SM-ROOT/RA_SM-ROOT/APPMO-SP_ARP_v1.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gloria\Documents\Mayo-Ago 2019\Administración de Proyectos II\Unidad 3\U3-APTI2-Tarea de Alumnos\Noveno A\RA_GestionRiegos_9°A\9°A_RA_Planificación de riesgos\RA_SM-ROOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cecy Tapia\Desktop\SM-ROOT\9°A\Administración de proyectos\RA_GestionRiegos_SM-ROOT\RA_SM-ROOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Grafica" sheetId="4" r:id="rId4"/>
     <sheet name="Datos" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -490,23 +490,14 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Seguimiento a la aplicación de la norma ISO 9126 en el criterio de .</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>.</t>
+      <t>Seguimiento a la aplicación de la norma ISO 9126 en el criterio de eficiencia de desempeño.</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1683,67 +1674,67 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2105,8 +2096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2564,7 +2555,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="141" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="22">
         <v>6</v>
       </c>
@@ -2894,18 +2885,18 @@
     </row>
     <row r="3" spans="2:17" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="12"/>
-      <c r="C3" s="159" t="s">
+      <c r="C3" s="144" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
       <c r="M3" s="14"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.2">
@@ -2941,10 +2932,10 @@
       <c r="I5" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="160" t="s">
+      <c r="J5" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="160"/>
+      <c r="K5" s="145"/>
       <c r="L5" s="34" t="s">
         <v>36</v>
       </c>
@@ -2969,10 +2960,10 @@
       <c r="I6" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="161" t="s">
+      <c r="J6" s="146" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="161"/>
+      <c r="K6" s="146"/>
       <c r="L6" s="37">
         <f>16/25*100</f>
         <v>64</v>
@@ -2998,10 +2989,10 @@
       <c r="I7" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="155" t="s">
+      <c r="J7" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="155"/>
+      <c r="K7" s="147"/>
       <c r="L7" s="42">
         <f>15/25*100</f>
         <v>60</v>
@@ -3027,10 +3018,10 @@
       <c r="I8" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="155" t="s">
+      <c r="J8" s="147" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="155"/>
+      <c r="K8" s="147"/>
       <c r="L8" s="42">
         <f>12/25*100</f>
         <v>48</v>
@@ -3056,10 +3047,10 @@
       <c r="I9" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="155" t="s">
+      <c r="J9" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="155"/>
+      <c r="K9" s="147"/>
       <c r="L9" s="42">
         <f>8/25*100</f>
         <v>32</v>
@@ -3085,10 +3076,10 @@
       <c r="I10" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="156" t="s">
+      <c r="J10" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="156"/>
+      <c r="K10" s="148"/>
       <c r="L10" s="47">
         <f>5/25*100</f>
         <v>20</v>
@@ -3134,10 +3125,10 @@
       <c r="C13" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="157" t="s">
+      <c r="D13" s="149" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="157"/>
+      <c r="E13" s="149"/>
       <c r="F13" s="51" t="s">
         <v>54</v>
       </c>
@@ -3167,11 +3158,11 @@
         <f>CONCATENATE($B$13,Matriz!B16)</f>
         <v>R1</v>
       </c>
-      <c r="D14" s="158" t="str">
+      <c r="D14" s="150" t="str">
         <f>Matriz!E16</f>
         <v>no trabajar eficientemente</v>
       </c>
-      <c r="E14" s="158"/>
+      <c r="E14" s="150"/>
       <c r="F14" s="54" t="str">
         <f>Matriz!F16</f>
         <v xml:space="preserve">Mala comunicación, descuerdos en el equipo y trabajo disperso. </v>
@@ -3823,11 +3814,11 @@
         <f t="shared" ref="C33:D47" si="3">C14</f>
         <v>R1</v>
       </c>
-      <c r="D33" s="148" t="str">
+      <c r="D33" s="155" t="str">
         <f t="shared" si="3"/>
         <v>no trabajar eficientemente</v>
       </c>
-      <c r="E33" s="148"/>
+      <c r="E33" s="155"/>
       <c r="F33" s="65" t="str">
         <f t="shared" ref="F33:F47" si="4">K14</f>
         <v>ALTO</v>
@@ -3846,12 +3837,12 @@
       <c r="J33" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="K33" s="149" t="str">
+      <c r="K33" s="156" t="str">
         <f>Matriz!K16</f>
         <v>•Realización de reuniones sobre avances del proyecto
 •Realizar acuerdos y trabajar en un punto medio de opiniones</v>
       </c>
-      <c r="L33" s="149"/>
+      <c r="L33" s="156"/>
       <c r="M33" s="14"/>
     </row>
     <row r="34" spans="2:13" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3860,11 +3851,11 @@
         <f t="shared" si="3"/>
         <v>R2</v>
       </c>
-      <c r="D34" s="150" t="str">
+      <c r="D34" s="157" t="str">
         <f t="shared" si="3"/>
         <v>Tiempos incongruentes y fechas mal planeadas ,Organización ineficiente</v>
       </c>
-      <c r="E34" s="150"/>
+      <c r="E34" s="157"/>
       <c r="F34" s="67" t="str">
         <f t="shared" si="4"/>
         <v>MODERADO</v>
@@ -3882,11 +3873,11 @@
       <c r="J34" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="K34" s="147" t="str">
+      <c r="K34" s="158" t="str">
         <f>Matriz!K17</f>
         <v>Revisar actividades con fechas y ajustarlos a tiempos del proyecto, utilizar un repositorio para el almacenamiento de la información.</v>
       </c>
-      <c r="L34" s="147"/>
+      <c r="L34" s="158"/>
       <c r="M34" s="14"/>
     </row>
     <row r="35" spans="2:13" ht="125.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3895,11 +3886,11 @@
         <f t="shared" si="3"/>
         <v>R3</v>
       </c>
-      <c r="D35" s="146" t="str">
+      <c r="D35" s="159" t="str">
         <f t="shared" si="3"/>
         <v>Cambios regulares y nuevos añadidos a los requerimientos</v>
       </c>
-      <c r="E35" s="146"/>
+      <c r="E35" s="159"/>
       <c r="F35" s="70" t="str">
         <f t="shared" si="4"/>
         <v>MODERADO</v>
@@ -3917,11 +3908,11 @@
       <c r="J35" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="K35" s="147" t="str">
+      <c r="K35" s="158" t="str">
         <f>Matriz!K18</f>
         <v xml:space="preserve">Acoplar los requerimientos nuevos o cambios  existentes de forma clara y  eficiente  para cumplir la funcionalidad planeada </v>
       </c>
-      <c r="L35" s="147"/>
+      <c r="L35" s="158"/>
       <c r="M35" s="14"/>
     </row>
     <row r="36" spans="2:13" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3930,11 +3921,11 @@
         <f t="shared" si="3"/>
         <v>R4</v>
       </c>
-      <c r="D36" s="146" t="str">
+      <c r="D36" s="159" t="str">
         <f t="shared" si="3"/>
         <v>interpretación erronea de las ventanas e interfaces</v>
       </c>
-      <c r="E36" s="146"/>
+      <c r="E36" s="159"/>
       <c r="F36" s="67" t="str">
         <f t="shared" si="4"/>
         <v>BAJO</v>
@@ -3953,12 +3944,12 @@
       <c r="J36" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="K36" s="147" t="str">
+      <c r="K36" s="158" t="str">
         <f>Matriz!K19</f>
         <v xml:space="preserve">Rediseñar las interfaces con base  a los requerimientos de software
 Aplicación de la norma ISO 9126 en el criterio de Usabilidad. </v>
       </c>
-      <c r="L36" s="147"/>
+      <c r="L36" s="158"/>
       <c r="M36" s="14"/>
     </row>
     <row r="37" spans="2:13" ht="147" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3967,11 +3958,11 @@
         <f t="shared" si="3"/>
         <v>R5</v>
       </c>
-      <c r="D37" s="146" t="str">
+      <c r="D37" s="159" t="str">
         <f t="shared" si="3"/>
         <v>Estructuración erronea de los datos, tablas mal relacionadas</v>
       </c>
-      <c r="E37" s="146"/>
+      <c r="E37" s="159"/>
       <c r="F37" s="70" t="str">
         <f t="shared" si="4"/>
         <v>MODERADO</v>
@@ -3989,11 +3980,11 @@
       <c r="J37" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="K37" s="147" t="str">
+      <c r="K37" s="158" t="str">
         <f>Matriz!K20</f>
         <v>Redefinir la arquitectura lógica llevando a cabo un analisis produndo para lograr  relaciones de tablas correctas con base a los procesos de la empresa</v>
       </c>
-      <c r="L37" s="147"/>
+      <c r="L37" s="158"/>
       <c r="M37" s="14"/>
     </row>
     <row r="38" spans="2:13" ht="194.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4002,11 +3993,11 @@
         <f t="shared" si="3"/>
         <v>R6</v>
       </c>
-      <c r="D38" s="144" t="str">
+      <c r="D38" s="160" t="str">
         <f t="shared" si="3"/>
         <v>Pruebas ineficientes</v>
       </c>
-      <c r="E38" s="144"/>
+      <c r="E38" s="160"/>
       <c r="F38" s="72" t="str">
         <f t="shared" si="4"/>
         <v>ALTO</v>
@@ -4019,7 +4010,7 @@
         <v>•Realizar pruebas completas sobre cada módulo de la aplicación asegurandose de cumplir la funcionalidad principal
 •Darle seguimiento a cada falla encontrado
 •someter nuevamente a pruebas los módulos donde se reportaron fallas.
-Seguimiento a la aplicación de la norma ISO 9126 en el criterio de ..</v>
+Seguimiento a la aplicación de la norma ISO 9126 en el criterio de eficiencia de desempeño.</v>
       </c>
       <c r="I38" s="64" t="s">
         <v>67</v>
@@ -4027,14 +4018,14 @@
       <c r="J38" s="73" t="s">
         <v>125</v>
       </c>
-      <c r="K38" s="145" t="str">
+      <c r="K38" s="161" t="str">
         <f>Matriz!K21</f>
         <v>•Realizar pruebas completas sobre cada módulo de la aplicación asegurandose de cumplir la funcionalidad principal
 •Darle seguimiento a cada falla encontrado
 •someter nuevamente a pruebas los módulos donde se reportaron fallas.
-Seguimiento a la aplicación de la norma ISO 9126 en el criterio de ..</v>
-      </c>
-      <c r="L38" s="145"/>
+Seguimiento a la aplicación de la norma ISO 9126 en el criterio de eficiencia de desempeño.</v>
+      </c>
+      <c r="L38" s="161"/>
       <c r="M38" s="14"/>
     </row>
     <row r="39" spans="2:13" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4043,11 +4034,11 @@
         <f t="shared" si="3"/>
         <v>R7</v>
       </c>
-      <c r="D39" s="144">
+      <c r="D39" s="160">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E39" s="144"/>
+      <c r="E39" s="160"/>
       <c r="F39" s="72" t="str">
         <f t="shared" si="4"/>
         <v>MUY BAJO</v>
@@ -4061,11 +4052,11 @@
         <v>67</v>
       </c>
       <c r="J39" s="73"/>
-      <c r="K39" s="145">
+      <c r="K39" s="161">
         <f>Matriz!K22</f>
         <v>0</v>
       </c>
-      <c r="L39" s="145"/>
+      <c r="L39" s="161"/>
       <c r="M39" s="14"/>
     </row>
     <row r="40" spans="2:13" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4074,11 +4065,11 @@
         <f t="shared" si="3"/>
         <v>R8</v>
       </c>
-      <c r="D40" s="144">
+      <c r="D40" s="160">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E40" s="144"/>
+      <c r="E40" s="160"/>
       <c r="F40" s="72" t="str">
         <f t="shared" si="4"/>
         <v>MUY BAJO</v>
@@ -4092,11 +4083,11 @@
         <v>67</v>
       </c>
       <c r="J40" s="73"/>
-      <c r="K40" s="145">
+      <c r="K40" s="161">
         <f>Matriz!K23</f>
         <v>0</v>
       </c>
-      <c r="L40" s="145"/>
+      <c r="L40" s="161"/>
       <c r="M40" s="14"/>
     </row>
     <row r="41" spans="2:13" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4105,11 +4096,11 @@
         <f t="shared" si="3"/>
         <v>R9</v>
       </c>
-      <c r="D41" s="144">
+      <c r="D41" s="160">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E41" s="144"/>
+      <c r="E41" s="160"/>
       <c r="F41" s="72" t="str">
         <f t="shared" si="4"/>
         <v>MUY BAJO</v>
@@ -4123,11 +4114,11 @@
         <v>67</v>
       </c>
       <c r="J41" s="73"/>
-      <c r="K41" s="145">
+      <c r="K41" s="161">
         <f>Matriz!K24</f>
         <v>0</v>
       </c>
-      <c r="L41" s="145"/>
+      <c r="L41" s="161"/>
       <c r="M41" s="14"/>
     </row>
     <row r="42" spans="2:13" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4136,11 +4127,11 @@
         <f t="shared" si="3"/>
         <v>R10</v>
       </c>
-      <c r="D42" s="144">
+      <c r="D42" s="160">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E42" s="144"/>
+      <c r="E42" s="160"/>
       <c r="F42" s="72" t="str">
         <f t="shared" si="4"/>
         <v>MUY BAJO</v>
@@ -4154,11 +4145,11 @@
         <v>67</v>
       </c>
       <c r="J42" s="73"/>
-      <c r="K42" s="145">
+      <c r="K42" s="161">
         <f>Matriz!K25</f>
         <v>0</v>
       </c>
-      <c r="L42" s="145"/>
+      <c r="L42" s="161"/>
       <c r="M42" s="14"/>
     </row>
     <row r="43" spans="2:13" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4167,11 +4158,11 @@
         <f t="shared" si="3"/>
         <v>R11</v>
       </c>
-      <c r="D43" s="144">
+      <c r="D43" s="160">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E43" s="144"/>
+      <c r="E43" s="160"/>
       <c r="F43" s="72" t="str">
         <f t="shared" si="4"/>
         <v>MUY BAJO</v>
@@ -4185,11 +4176,11 @@
         <v>67</v>
       </c>
       <c r="J43" s="73"/>
-      <c r="K43" s="145">
+      <c r="K43" s="161">
         <f>Matriz!K26</f>
         <v>0</v>
       </c>
-      <c r="L43" s="145"/>
+      <c r="L43" s="161"/>
       <c r="M43" s="14"/>
     </row>
     <row r="44" spans="2:13" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4198,11 +4189,11 @@
         <f t="shared" si="3"/>
         <v>R12</v>
       </c>
-      <c r="D44" s="144">
+      <c r="D44" s="160">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E44" s="144"/>
+      <c r="E44" s="160"/>
       <c r="F44" s="72" t="str">
         <f t="shared" si="4"/>
         <v>MUY BAJO</v>
@@ -4216,11 +4207,11 @@
         <v>67</v>
       </c>
       <c r="J44" s="73"/>
-      <c r="K44" s="145">
+      <c r="K44" s="161">
         <f>Matriz!K27</f>
         <v>0</v>
       </c>
-      <c r="L44" s="145"/>
+      <c r="L44" s="161"/>
       <c r="M44" s="14"/>
     </row>
     <row r="45" spans="2:13" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4229,11 +4220,11 @@
         <f t="shared" si="3"/>
         <v>R13</v>
       </c>
-      <c r="D45" s="144">
+      <c r="D45" s="160">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E45" s="144"/>
+      <c r="E45" s="160"/>
       <c r="F45" s="72" t="str">
         <f t="shared" si="4"/>
         <v>MUY BAJO</v>
@@ -4247,11 +4238,11 @@
         <v>67</v>
       </c>
       <c r="J45" s="73"/>
-      <c r="K45" s="145">
+      <c r="K45" s="161">
         <f>Matriz!K28</f>
         <v>0</v>
       </c>
-      <c r="L45" s="145"/>
+      <c r="L45" s="161"/>
       <c r="M45" s="14"/>
     </row>
     <row r="46" spans="2:13" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4260,11 +4251,11 @@
         <f t="shared" si="3"/>
         <v>R14</v>
       </c>
-      <c r="D46" s="144">
+      <c r="D46" s="160">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E46" s="144"/>
+      <c r="E46" s="160"/>
       <c r="F46" s="72" t="str">
         <f t="shared" si="4"/>
         <v>MUY BAJO</v>
@@ -4278,11 +4269,11 @@
         <v>67</v>
       </c>
       <c r="J46" s="73"/>
-      <c r="K46" s="145">
+      <c r="K46" s="161">
         <f>Matriz!K29</f>
         <v>0</v>
       </c>
-      <c r="L46" s="145"/>
+      <c r="L46" s="161"/>
       <c r="M46" s="14"/>
     </row>
     <row r="47" spans="2:13" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4291,11 +4282,11 @@
         <f t="shared" si="3"/>
         <v>R15</v>
       </c>
-      <c r="D47" s="144">
+      <c r="D47" s="160">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E47" s="144"/>
+      <c r="E47" s="160"/>
       <c r="F47" s="72" t="str">
         <f t="shared" si="4"/>
         <v>MUY BAJO</v>
@@ -4309,11 +4300,11 @@
         <v>67</v>
       </c>
       <c r="J47" s="73"/>
-      <c r="K47" s="145">
+      <c r="K47" s="161">
         <f>Matriz!K30</f>
         <v>0</v>
       </c>
-      <c r="L47" s="145"/>
+      <c r="L47" s="161"/>
       <c r="M47" s="14"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.2">
@@ -4360,62 +4351,62 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="K35:L35"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="B30:M30"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="K32:L32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
   </mergeCells>
   <conditionalFormatting sqref="L14:L28">
     <cfRule type="colorScale" priority="2">
@@ -4485,21 +4476,21 @@
   <sheetData>
     <row r="4" spans="3:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="3:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="163" t="s">
+      <c r="C5" s="162" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="163"/>
-      <c r="O5" s="163"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="162"/>
+      <c r="I5" s="162"/>
+      <c r="J5" s="162"/>
+      <c r="K5" s="162"/>
+      <c r="L5" s="162"/>
+      <c r="M5" s="162"/>
+      <c r="N5" s="162"/>
+      <c r="O5" s="162"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C6" s="12"/>
@@ -4521,10 +4512,10 @@
       <c r="D7" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="164" t="s">
+      <c r="E7" s="163" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="164"/>
+      <c r="F7" s="163"/>
       <c r="G7" s="77" t="s">
         <v>62</v>
       </c>
@@ -4543,10 +4534,10 @@
       <c r="L7" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="M7" s="164" t="s">
+      <c r="M7" s="163" t="s">
         <v>73</v>
       </c>
-      <c r="N7" s="164"/>
+      <c r="N7" s="163"/>
       <c r="O7" s="14"/>
     </row>
     <row r="8" spans="3:15" ht="146.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4555,11 +4546,11 @@
         <f>'Cualitativo '!C33</f>
         <v>R1</v>
       </c>
-      <c r="E8" s="162" t="str">
+      <c r="E8" s="164" t="str">
         <f>'Cualitativo '!D33</f>
         <v>no trabajar eficientemente</v>
       </c>
-      <c r="F8" s="162"/>
+      <c r="F8" s="164"/>
       <c r="G8" s="80" t="str">
         <f>'Cualitativo '!F33</f>
         <v>ALTO</v>
@@ -4583,10 +4574,10 @@
         <f>'Cualitativo '!J33</f>
         <v>Portafolio manager</v>
       </c>
-      <c r="M8" s="162" t="s">
+      <c r="M8" s="164" t="s">
         <v>123</v>
       </c>
-      <c r="N8" s="162"/>
+      <c r="N8" s="164"/>
       <c r="O8" s="14"/>
     </row>
     <row r="9" spans="3:15" ht="113.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -4595,11 +4586,11 @@
         <f>'Cualitativo '!C34</f>
         <v>R2</v>
       </c>
-      <c r="E9" s="162" t="str">
+      <c r="E9" s="164" t="str">
         <f>'Cualitativo '!D34</f>
         <v>Tiempos incongruentes y fechas mal planeadas ,Organización ineficiente</v>
       </c>
-      <c r="F9" s="162"/>
+      <c r="F9" s="164"/>
       <c r="G9" s="80" t="str">
         <f>'Cualitativo '!F34</f>
         <v>MODERADO</v>
@@ -4622,10 +4613,10 @@
         <f>'Cualitativo '!J34</f>
         <v>Portafolio manager</v>
       </c>
-      <c r="M9" s="162" t="s">
+      <c r="M9" s="164" t="s">
         <v>126</v>
       </c>
-      <c r="N9" s="162"/>
+      <c r="N9" s="164"/>
       <c r="O9" s="14"/>
     </row>
     <row r="10" spans="3:15" ht="114.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -4634,11 +4625,11 @@
         <f>'Cualitativo '!C35</f>
         <v>R3</v>
       </c>
-      <c r="E10" s="162" t="str">
+      <c r="E10" s="164" t="str">
         <f>'Cualitativo '!D35</f>
         <v>Cambios regulares y nuevos añadidos a los requerimientos</v>
       </c>
-      <c r="F10" s="162"/>
+      <c r="F10" s="164"/>
       <c r="G10" s="80" t="str">
         <f>'Cualitativo '!F35</f>
         <v>MODERADO</v>
@@ -4661,10 +4652,10 @@
         <f>'Cualitativo '!J35</f>
         <v>Portafolio manager</v>
       </c>
-      <c r="M10" s="162" t="s">
+      <c r="M10" s="164" t="s">
         <v>127</v>
       </c>
-      <c r="N10" s="162"/>
+      <c r="N10" s="164"/>
       <c r="O10" s="14"/>
     </row>
     <row r="11" spans="3:15" ht="92.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -4673,11 +4664,11 @@
         <f>'Cualitativo '!C36</f>
         <v>R4</v>
       </c>
-      <c r="E11" s="162" t="str">
+      <c r="E11" s="164" t="str">
         <f>'Cualitativo '!D36</f>
         <v>interpretación erronea de las ventanas e interfaces</v>
       </c>
-      <c r="F11" s="162"/>
+      <c r="F11" s="164"/>
       <c r="G11" s="80" t="str">
         <f>'Cualitativo '!F36</f>
         <v>BAJO</v>
@@ -4700,10 +4691,10 @@
       <c r="L11" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="M11" s="162" t="s">
+      <c r="M11" s="164" t="s">
         <v>128</v>
       </c>
-      <c r="N11" s="162"/>
+      <c r="N11" s="164"/>
       <c r="O11" s="14"/>
     </row>
     <row r="12" spans="3:15" ht="137.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4712,11 +4703,11 @@
         <f>'Cualitativo '!C37</f>
         <v>R5</v>
       </c>
-      <c r="E12" s="162" t="str">
+      <c r="E12" s="164" t="str">
         <f>'Cualitativo '!D37</f>
         <v>Estructuración erronea de los datos, tablas mal relacionadas</v>
       </c>
-      <c r="F12" s="162"/>
+      <c r="F12" s="164"/>
       <c r="G12" s="80" t="str">
         <f>'Cualitativo '!F37</f>
         <v>MODERADO</v>
@@ -4739,10 +4730,10 @@
         <f>'Cualitativo '!J37</f>
         <v>Analista</v>
       </c>
-      <c r="M12" s="162" t="s">
+      <c r="M12" s="164" t="s">
         <v>129</v>
       </c>
-      <c r="N12" s="162"/>
+      <c r="N12" s="164"/>
       <c r="O12" s="14"/>
     </row>
     <row r="13" spans="3:15" ht="212.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -4751,11 +4742,11 @@
         <f>'Cualitativo '!C38</f>
         <v>R6</v>
       </c>
-      <c r="E13" s="162" t="str">
+      <c r="E13" s="164" t="str">
         <f>'Cualitativo '!D38</f>
         <v>Pruebas ineficientes</v>
       </c>
-      <c r="F13" s="162"/>
+      <c r="F13" s="164"/>
       <c r="G13" s="80" t="str">
         <f>'Cualitativo '!F38</f>
         <v>ALTO</v>
@@ -4769,7 +4760,7 @@
         <v>•Realizar pruebas completas sobre cada módulo de la aplicación asegurandose de cumplir la funcionalidad principal
 •Darle seguimiento a cada falla encontrado
 •someter nuevamente a pruebas los módulos donde se reportaron fallas.
-Seguimiento a la aplicación de la norma ISO 9126 en el criterio de ..</v>
+Seguimiento a la aplicación de la norma ISO 9126 en el criterio de eficiencia de desempeño.</v>
       </c>
       <c r="J13" s="134"/>
       <c r="K13" s="79"/>
@@ -4777,8 +4768,8 @@
         <f>'Cualitativo '!J38</f>
         <v>programador</v>
       </c>
-      <c r="M13" s="162"/>
-      <c r="N13" s="162"/>
+      <c r="M13" s="164"/>
+      <c r="N13" s="164"/>
       <c r="O13" s="14"/>
     </row>
     <row r="14" spans="3:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4787,11 +4778,11 @@
         <f>'Cualitativo '!C39</f>
         <v>R7</v>
       </c>
-      <c r="E14" s="162">
+      <c r="E14" s="164">
         <f>'Cualitativo '!D39</f>
         <v>0</v>
       </c>
-      <c r="F14" s="162"/>
+      <c r="F14" s="164"/>
       <c r="G14" s="80" t="str">
         <f>'Cualitativo '!F39</f>
         <v>MUY BAJO</v>
@@ -4810,8 +4801,8 @@
         <f>'Cualitativo '!J39</f>
         <v>0</v>
       </c>
-      <c r="M14" s="162"/>
-      <c r="N14" s="162"/>
+      <c r="M14" s="164"/>
+      <c r="N14" s="164"/>
       <c r="O14" s="14"/>
     </row>
     <row r="15" spans="3:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4820,11 +4811,11 @@
         <f>'Cualitativo '!C40</f>
         <v>R8</v>
       </c>
-      <c r="E15" s="162">
+      <c r="E15" s="164">
         <f>'Cualitativo '!D40</f>
         <v>0</v>
       </c>
-      <c r="F15" s="162"/>
+      <c r="F15" s="164"/>
       <c r="G15" s="80" t="str">
         <f>'Cualitativo '!F40</f>
         <v>MUY BAJO</v>
@@ -4843,8 +4834,8 @@
         <f>'Cualitativo '!J40</f>
         <v>0</v>
       </c>
-      <c r="M15" s="162"/>
-      <c r="N15" s="162"/>
+      <c r="M15" s="164"/>
+      <c r="N15" s="164"/>
       <c r="O15" s="14"/>
     </row>
     <row r="16" spans="3:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4853,11 +4844,11 @@
         <f>'Cualitativo '!C41</f>
         <v>R9</v>
       </c>
-      <c r="E16" s="162">
+      <c r="E16" s="164">
         <f>'Cualitativo '!D41</f>
         <v>0</v>
       </c>
-      <c r="F16" s="162"/>
+      <c r="F16" s="164"/>
       <c r="G16" s="80" t="str">
         <f>'Cualitativo '!F41</f>
         <v>MUY BAJO</v>
@@ -4876,8 +4867,8 @@
         <f>'Cualitativo '!J41</f>
         <v>0</v>
       </c>
-      <c r="M16" s="162"/>
-      <c r="N16" s="162"/>
+      <c r="M16" s="164"/>
+      <c r="N16" s="164"/>
       <c r="O16" s="14"/>
     </row>
     <row r="17" spans="3:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4886,11 +4877,11 @@
         <f>'Cualitativo '!C42</f>
         <v>R10</v>
       </c>
-      <c r="E17" s="162">
+      <c r="E17" s="164">
         <f>'Cualitativo '!D42</f>
         <v>0</v>
       </c>
-      <c r="F17" s="162"/>
+      <c r="F17" s="164"/>
       <c r="G17" s="80" t="str">
         <f>'Cualitativo '!F42</f>
         <v>MUY BAJO</v>
@@ -4909,8 +4900,8 @@
         <f>'Cualitativo '!J42</f>
         <v>0</v>
       </c>
-      <c r="M17" s="162"/>
-      <c r="N17" s="162"/>
+      <c r="M17" s="164"/>
+      <c r="N17" s="164"/>
       <c r="O17" s="14"/>
     </row>
     <row r="18" spans="3:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4919,11 +4910,11 @@
         <f>'Cualitativo '!C43</f>
         <v>R11</v>
       </c>
-      <c r="E18" s="162">
+      <c r="E18" s="164">
         <f>'Cualitativo '!D43</f>
         <v>0</v>
       </c>
-      <c r="F18" s="162"/>
+      <c r="F18" s="164"/>
       <c r="G18" s="80" t="str">
         <f>'Cualitativo '!F43</f>
         <v>MUY BAJO</v>
@@ -4942,8 +4933,8 @@
         <f>'Cualitativo '!J43</f>
         <v>0</v>
       </c>
-      <c r="M18" s="162"/>
-      <c r="N18" s="162"/>
+      <c r="M18" s="164"/>
+      <c r="N18" s="164"/>
       <c r="O18" s="14"/>
     </row>
     <row r="19" spans="3:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4952,11 +4943,11 @@
         <f>'Cualitativo '!C44</f>
         <v>R12</v>
       </c>
-      <c r="E19" s="162">
+      <c r="E19" s="164">
         <f>'Cualitativo '!D44</f>
         <v>0</v>
       </c>
-      <c r="F19" s="162"/>
+      <c r="F19" s="164"/>
       <c r="G19" s="80" t="str">
         <f>'Cualitativo '!F44</f>
         <v>MUY BAJO</v>
@@ -4975,8 +4966,8 @@
         <f>'Cualitativo '!J44</f>
         <v>0</v>
       </c>
-      <c r="M19" s="162"/>
-      <c r="N19" s="162"/>
+      <c r="M19" s="164"/>
+      <c r="N19" s="164"/>
       <c r="O19" s="14"/>
     </row>
     <row r="20" spans="3:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4985,11 +4976,11 @@
         <f>'Cualitativo '!C45</f>
         <v>R13</v>
       </c>
-      <c r="E20" s="162">
+      <c r="E20" s="164">
         <f>'Cualitativo '!D45</f>
         <v>0</v>
       </c>
-      <c r="F20" s="162"/>
+      <c r="F20" s="164"/>
       <c r="G20" s="80" t="str">
         <f>'Cualitativo '!F45</f>
         <v>MUY BAJO</v>
@@ -5008,8 +4999,8 @@
         <f>'Cualitativo '!J45</f>
         <v>0</v>
       </c>
-      <c r="M20" s="162"/>
-      <c r="N20" s="162"/>
+      <c r="M20" s="164"/>
+      <c r="N20" s="164"/>
       <c r="O20" s="14"/>
     </row>
     <row r="21" spans="3:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5018,11 +5009,11 @@
         <f>'Cualitativo '!C46</f>
         <v>R14</v>
       </c>
-      <c r="E21" s="162">
+      <c r="E21" s="164">
         <f>'Cualitativo '!D46</f>
         <v>0</v>
       </c>
-      <c r="F21" s="162"/>
+      <c r="F21" s="164"/>
       <c r="G21" s="80" t="str">
         <f>'Cualitativo '!F46</f>
         <v>MUY BAJO</v>
@@ -5041,8 +5032,8 @@
         <f>'Cualitativo '!J46</f>
         <v>0</v>
       </c>
-      <c r="M21" s="162"/>
-      <c r="N21" s="162"/>
+      <c r="M21" s="164"/>
+      <c r="N21" s="164"/>
       <c r="O21" s="14"/>
     </row>
     <row r="22" spans="3:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5051,11 +5042,11 @@
         <f>'Cualitativo '!C47</f>
         <v>R15</v>
       </c>
-      <c r="E22" s="162">
+      <c r="E22" s="164">
         <f>'Cualitativo '!D47</f>
         <v>0</v>
       </c>
-      <c r="F22" s="162"/>
+      <c r="F22" s="164"/>
       <c r="G22" s="80" t="str">
         <f>'Cualitativo '!F47</f>
         <v>MUY BAJO</v>
@@ -5074,8 +5065,8 @@
         <f>'Cualitativo '!J47</f>
         <v>0</v>
       </c>
-      <c r="M22" s="162"/>
-      <c r="N22" s="162"/>
+      <c r="M22" s="164"/>
+      <c r="N22" s="164"/>
       <c r="O22" s="14"/>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.2">
@@ -5125,29 +5116,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C5:O5"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="M17:N17"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="M21:N21"/>
     <mergeCell ref="E22:F22"/>
@@ -5158,6 +5126,29 @@
     <mergeCell ref="M19:N19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="M20:N20"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="C5:O5"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="M8:N8"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5184,7 +5175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:N11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="B7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
